--- a/Mifos Automation Excels/Loan Product/2430-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DATE-VAR-INST-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/2430-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DATE-VAR-INST-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>productname</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Same as repayment period</t>
   </si>
   <si>
-    <t>2430-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DATE-VAR-INST</t>
-  </si>
-  <si>
     <t>IsVariableInstallmentsAllowed</t>
   </si>
   <si>
@@ -147,6 +144,12 @@
   </si>
   <si>
     <t>VariableInstallmentsMaximumGap</t>
+  </si>
+  <si>
+    <t>2430-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DATE-VAR-INST-1st</t>
+  </si>
+  <si>
+    <t>243e</t>
   </si>
 </sst>
 </file>
@@ -521,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -536,15 +539,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>2430</v>
+      <c r="B2" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -677,7 +680,7 @@
     </row>
     <row r="19" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>6</v>
@@ -685,7 +688,7 @@
     </row>
     <row r="20" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -693,7 +696,7 @@
     </row>
     <row r="21" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1">
         <v>365</v>
@@ -787,8 +790,8 @@
       <c r="A1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>40</v>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
